--- a/FlywireCurrentProject/ReadAnalogVoltage/Book1.xlsx
+++ b/FlywireCurrentProject/ReadAnalogVoltage/Book1.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BatteryChart" sheetId="2" r:id="rId1"/>
     <sheet name="BatteryMeasurements" sheetId="1" r:id="rId2"/>
     <sheet name="CombinedChart" sheetId="4" r:id="rId3"/>
     <sheet name="5V supply" sheetId="3" r:id="rId4"/>
+    <sheet name="6v Supply" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Voltage out varies from just above 1.5V to just below 3.5</t>
   </si>
@@ -54,6 +55,24 @@
   </si>
   <si>
     <t>5V</t>
+  </si>
+  <si>
+    <t>Run 1 unloaded</t>
+  </si>
+  <si>
+    <t>Run 2 - with servo powered</t>
+  </si>
+  <si>
+    <t>Run 3 firing dart</t>
+  </si>
+  <si>
+    <t>Run 4 - transistor switch 10k</t>
+  </si>
+  <si>
+    <t>Run 5 - transistor switch 5k</t>
+  </si>
+  <si>
+    <t>Run 6 - holding accel trigger</t>
   </si>
 </sst>
 </file>
@@ -153,7 +172,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1500,11 +1518,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="297982168"/>
-        <c:axId val="297982560"/>
+        <c:axId val="203844008"/>
+        <c:axId val="203844400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="297982168"/>
+        <c:axId val="203844008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1559,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1608,7 +1625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297982560"/>
+        <c:crossAx val="203844400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1616,7 +1633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297982560"/>
+        <c:axId val="203844400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1679,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1723,7 +1739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297982168"/>
+        <c:crossAx val="203844008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1737,7 +1753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8424,11 +8439,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="193607936"/>
-        <c:axId val="193608328"/>
+        <c:axId val="203845576"/>
+        <c:axId val="203845968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193607936"/>
+        <c:axId val="203845576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8471,7 +8486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193608328"/>
+        <c:crossAx val="203845968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8479,7 +8494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193608328"/>
+        <c:axId val="203845968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -8531,7 +8546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193607936"/>
+        <c:crossAx val="203845576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8618,6 +8633,2907 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6v Supply'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 1 unloaded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'6v Supply'!$A$2:$A$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="214"/>
+                <c:pt idx="0">
+                  <c:v>146.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>291.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>288.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>288.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>289.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>290.70999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>288.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>287.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>287.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>285.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>282.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>284.19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>283.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>282.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>281.13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>281.39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>281.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.77999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>279.52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>280.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>277.83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>278.58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>277.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>274.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>274.24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>272.31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>271.51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>271.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>270.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>269.27</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>265.92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>265.81</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>262.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>262.52999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>261.42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>259.73</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>258.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>254.32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>255.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>251.82</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>250.45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>248.58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>246.58</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>242.26</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>241.17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>238.83</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>238.46</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>231.96</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>231.16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>229.33</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>227.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>224.65</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>225.14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>224.16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>222.39</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>223.85</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>225.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>221.24</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>220.94</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>225.46</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>227.11</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>226.03</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>223.09</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>218.46</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>216.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>216.85</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>218.12</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>217.89</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>213.72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>214.95</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>214.87</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>212.52</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>213.84</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>214.08</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>214.13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>211.56</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>213.39</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>211.37</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>211.82</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>211.86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>212.93</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>216.85</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>214.45</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>215.98</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>219.15</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>224.24</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>227.46</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>227.87</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>227.35</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>227.99</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>226.48</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>223.91</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>224.34</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>222.65</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>225.31</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>221.95</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>223.24</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>226.48</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>227.2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>225.76</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>224.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>227.61</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>226.74</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>226.24</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>224.94</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>225.41</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>225.48</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>223.24</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>223.97</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>224.63</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>225.81</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>223.24</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>226.42</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>227.16</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>229.05</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>229.74</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>229.44</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>229.99</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>229.16</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>229.94</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>231.09</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>233.55</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>235.27</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>232.92</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>232.57</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>230.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>232.03</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>233.09</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>231.88</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>232.96</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>232.13</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>231.84</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>146.58000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6v Supply'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 2 - with servo powered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'6v Supply'!$B$2:$B$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="214"/>
+                <c:pt idx="0">
+                  <c:v>176.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>171.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>253.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>243.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>243.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>249.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>268.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>270.19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>269.83999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>268.56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>264.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>265.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>265.51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>264.89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>258.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>254.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>245.84</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>238.52</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>215.61</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>156.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>136.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>133.16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>134.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>133.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>130.94</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>127.71</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>128.47</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>127.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>129.18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>127.71</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>122.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>133.29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>137.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>204.61</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>221.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>221.96</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>227.35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>222.31</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>224.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>218.99</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>223.31</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>223.27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>220.14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>219.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>218.71</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>212.54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>210.71</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>202.19</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>191.28</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>167.63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>158.93</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>159.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>164.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>164.08</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>158.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>144.13</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>140.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>174.61</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>160.01</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>154.69</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>164.31</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>163.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>180.52</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>176.72</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>175.64</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>171.47</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>166.85</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>168.68</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>173.92</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>178.67</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>171.98</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>174.28</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>174.18</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>171.96</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>163.34</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>165.27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>176.82</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>179.14</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>189.73</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>186.88</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>187.77</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>184.3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>180.73</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>182.82</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>181.34</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>179.76</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>177.99</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>183.16</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>182.49</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>179.99</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>179.84</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>176.63</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>175.82</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>177.76</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>179.01</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>178.3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>172.26</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>172.01</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>176.43</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>174.68</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>173.25</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>165.44</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>166.89</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>174.41</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>175.17</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>170.21</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>165.42</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>164.11</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>167.13</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>169.48</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>173.87</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>164.64</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>164.38</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>166.87</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>165.7</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>165.23</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>164.23</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>162.01</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>167.81</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>176.55</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>168.59</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>182.57</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>195.36</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>207.26</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>202.16</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>196.84</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>209.17</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>201.25</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>194.43</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>200.39</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>194.91</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>199.06</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>203.47</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>202.83</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>199.02</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>191.25</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>190.02</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>189.83</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>189.95</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>184.91</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>182.72</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>182.47</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>179.73</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>183.8</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>185.16</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>181.52</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>179.58</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>182.75</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>177.72</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>180.43</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>189.07</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>172.35</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>182.3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>176.5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>178.26</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>179.84</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>190.12</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>191.48</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>200.94</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>203.95</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>209.23</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>208.21</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>208.56</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>212.07</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>206.6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>207.97</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>205.78</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>207.16</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>203.98</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>199.42</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>201.84</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>196.16</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>195.62</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>204.16</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>184.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>178.12</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>187.43</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>178.64</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>169.73</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>153.84</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>158.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>154.31</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>165.22</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>163.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>176.71</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>183.88</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>184.66</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>180.45</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>177.26</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>173.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6v Supply'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 3 firing dart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'6v Supply'!$C$2:$C$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="214"/>
+                <c:pt idx="0">
+                  <c:v>190.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>253.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>253.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>253.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>253.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>255.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>261.77999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>265.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>249.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>247.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>247.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>247.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>246.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>244.82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>245.34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>244.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>241.84</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>242.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>241.34</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>239.62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>237.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>236.67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>236.53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>234.45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>232.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>233.99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>231.73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>232.99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>229.41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>224.33</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>219.64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>209.13</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>202.18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>204.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>208.49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>212.74</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>208.86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>208.63</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>194.99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>207.08</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>213.19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>209.36</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>207.92</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>207.14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>202.43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>200.65</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>199.32</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>196.08</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>197.54</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>197.45</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>193.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>190.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>191.91</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>192.21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>193.57</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>192.81</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>188.26</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>195.46</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>190.68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>191.39</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>191.36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>188.45</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>191.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>186.97</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>193.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>185.64</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>189.07</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>187.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>185.24</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>197.78</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>185.45</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>185.82</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>196.17</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>187.43</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>187.11</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>194.29</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>191.05</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>185.12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>189.43</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>194.16</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>193.07</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>186.03</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>185.63</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>184.79</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>187.11</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>185.16</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>187.1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>195.16</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>196.57</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>193.92</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>192.09</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>189.73</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>183.66</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>190.67</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>194.59</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>194.66</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>194.73</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>196.68</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>194.83</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>191.32</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>186.29</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>181.03</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>178.86</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>178.84</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>179.58</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>180.66</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>170.71</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>170.54</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>175.24</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>175.77</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>174.62</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>174.56</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>186.67</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>185.87</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>172.54</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>181.53</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>190.26</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>184.71</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>183.56</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>192.01</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>191.81</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>187.26</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>187.65</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>190.46</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>196.02</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>194.94</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>185.06</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>193.52</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>192.36</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>190.31</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>186.65</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>186.12</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>189.49</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>186.39</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>186.21</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>188.59</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>186.55</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>189.52</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>188.88</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>185.48</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>184.48</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>184.22</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>189.04</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>186.32</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>179.54</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>180.66</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>188.34</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>178.93</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>184.55</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>182.43</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>182.21</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>177.83</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>182.76</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>177.89</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>179.78</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>184.8</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>185.41</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>187.37</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>179.82</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>179.45</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>188.32</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>178.41</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>188.12</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>179.28</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>181.1</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>182.48</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>183.46</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>179.76</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>188.85</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>259.76</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>260.20999999999998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>260.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>256.70999999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>257.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>254.28</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>245.55</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>244.42</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>242.15</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>238.68</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>235.4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>229.83</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>230.96</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>222.3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>223.03</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>217.89</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>212.51</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>215.97</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>208.38</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>203.26</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>202.55</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197.08</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>190.39</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>204.86</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>203.93</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>192.48</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202.49</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>197.06</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>197.23</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>198.92</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>195.58</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>199.14</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>198.56</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>197.02</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>197.51</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>191.48</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>194.56</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>164.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6v Supply'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 4 - transistor switch 10k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'6v Supply'!$D$2:$D$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="214"/>
+                <c:pt idx="0">
+                  <c:v>229.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>236.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>235.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>235.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>234.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>235.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>235.14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>226.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>232.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>233.55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>233.23</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>231.96</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>231.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>231.57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>230.09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>228.29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>229.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>228.26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>227.44</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>227.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>227.59</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>225.54</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>218.16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>211.51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>210.92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>209.22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>204.31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>207.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>205.76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>203.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>203.54</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>199.34</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>191.71</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>189.45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>192.64</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>189.98</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>183.69</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>181.34</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>184.32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>180.39</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>173.37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>175.41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>178.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>169.45</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>166.82</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>163.63</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>163.56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>152.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>155.26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>156.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>156.03</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>152.35</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>157.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>148.07</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>154.94</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>153.07</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>156.63</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>151.88</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>154.87</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>155.66</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>151.35</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>155.31</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>144.93</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>150.16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>153.53</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>153.4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>151.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>153.22</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>154.47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>152.16</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>154.01</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>152.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>148.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>154.31</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>156.35</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>147.01</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>146.62</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>154.25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>154.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>149.81</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>149.99</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>153.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>158.18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>155.72</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>147.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>153.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>149.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>155.85</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>150.16</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>151.85</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>144.84</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>148.03</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>147.03</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>145.71</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>144.88</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>144.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>145.41</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>147.66</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>147.21</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>148.38</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>151.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>148.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>150.29</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>148.84</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>147.51</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>149.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>148.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>152.81</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>146.65</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>154.46</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>148.21</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>146.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>148.79</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>101.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6v Supply'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 5 - transistor switch 5k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'6v Supply'!$E$2:$E$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="214"/>
+                <c:pt idx="0">
+                  <c:v>322.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>336.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>338.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>338.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>338.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>337.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>336.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>335.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>336.71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>335.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>335.67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>335.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>334.84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>333.99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>334.01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>333.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>332.97</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>332.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>331.63</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>331.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>329.17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>327.74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>328.63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>327.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>324.41000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>324.07</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>323.43</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>325.56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>321.42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>318.74</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>314.12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>314.77</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>314.83</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>312.29000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>312.31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>307.79000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>307.33</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>303.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>300.18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>301.47000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>296.97000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>291.70999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>292.43</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>285.67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>282.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>280.77999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>274.18</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>270.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>272.01</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>274.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>276.18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>277.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>275.24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>274.13</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>274.27999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>268.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>266.98</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>261.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>262.18</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>259.23</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>259.36</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>230.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6v Supply'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run 6 - holding accel trigger</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'6v Supply'!$F$2:$F$215</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="214"/>
+                <c:pt idx="0">
+                  <c:v>714.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648.30999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>594.41999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>543.80999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>469.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>437.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>408.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>383.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>348.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>340.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>332.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>324.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>311.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>314.77999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>302.16000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>287.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>288.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>291.83999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>289.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>280.08</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>273.49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>276.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>275.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>272.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>272.57</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>275.33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>270.22000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>272.02999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>270.52</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>273.55</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>269.98</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>269.52999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>266.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>271.57</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>270.06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>269.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>264.94</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>256.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>258.47000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>259.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>263.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>263.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>265.02999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>264.95999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>267.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>260.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>263.88</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>262.27</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>257.97000000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>259.07</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>258.55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>259.87</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>260.86</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>258.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>264.64</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>259.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>261.33</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>257.98</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>256.94</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>263.61</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>258.36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>260.13</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>254.53</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>253.92</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>265.92</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>256.25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>261.48</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>261.24</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>258.18</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>263.89</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>251.81</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>243.45</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>250.78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>63.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="322825376"/>
+        <c:axId val="322822632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="322825376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322822632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="322822632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="322825376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8659,6 +11575,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9730,6 +12686,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -9745,7 +13217,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10300,6 +13772,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16239,4 +19746,2901 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F215"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F215" sqref="A1:F215"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>146.87</v>
+      </c>
+      <c r="B2">
+        <v>176.56</v>
+      </c>
+      <c r="C2">
+        <v>190.67</v>
+      </c>
+      <c r="D2">
+        <v>229.46</v>
+      </c>
+      <c r="E2">
+        <v>322.57</v>
+      </c>
+      <c r="F2">
+        <v>714.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>291.88</v>
+      </c>
+      <c r="B3">
+        <v>173.74</v>
+      </c>
+      <c r="C3">
+        <v>266.01</v>
+      </c>
+      <c r="D3">
+        <v>240.12</v>
+      </c>
+      <c r="E3">
+        <v>336.75</v>
+      </c>
+      <c r="F3">
+        <v>648.30999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>288.23</v>
+      </c>
+      <c r="B4">
+        <v>168.51</v>
+      </c>
+      <c r="C4">
+        <v>265.67</v>
+      </c>
+      <c r="D4">
+        <v>236.1</v>
+      </c>
+      <c r="E4">
+        <v>338.36</v>
+      </c>
+      <c r="F4">
+        <v>594.41999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>288.64</v>
+      </c>
+      <c r="B5">
+        <v>171.41</v>
+      </c>
+      <c r="C5">
+        <v>255.82</v>
+      </c>
+      <c r="D5">
+        <v>236.78</v>
+      </c>
+      <c r="E5">
+        <v>338.99</v>
+      </c>
+      <c r="F5">
+        <v>543.80999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>289.77</v>
+      </c>
+      <c r="B6">
+        <v>211.39</v>
+      </c>
+      <c r="C6">
+        <v>254.73</v>
+      </c>
+      <c r="D6">
+        <v>236.9</v>
+      </c>
+      <c r="E6">
+        <v>338.08</v>
+      </c>
+      <c r="F6">
+        <v>500.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>290.70999999999998</v>
+      </c>
+      <c r="B7">
+        <v>253.07</v>
+      </c>
+      <c r="C7">
+        <v>253.58</v>
+      </c>
+      <c r="D7">
+        <v>236.71</v>
+      </c>
+      <c r="E7">
+        <v>338.03</v>
+      </c>
+      <c r="F7">
+        <v>469.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>288.62</v>
+      </c>
+      <c r="B8">
+        <v>243.19</v>
+      </c>
+      <c r="C8">
+        <v>253.32</v>
+      </c>
+      <c r="D8">
+        <v>235.53</v>
+      </c>
+      <c r="E8">
+        <v>338.25</v>
+      </c>
+      <c r="F8">
+        <v>437.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>287.51</v>
+      </c>
+      <c r="B9">
+        <v>243.68</v>
+      </c>
+      <c r="C9">
+        <v>253.25</v>
+      </c>
+      <c r="D9">
+        <v>235.03</v>
+      </c>
+      <c r="E9">
+        <v>337.53</v>
+      </c>
+      <c r="F9">
+        <v>408.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>287.75</v>
+      </c>
+      <c r="B10">
+        <v>243.14</v>
+      </c>
+      <c r="C10">
+        <v>253.32</v>
+      </c>
+      <c r="D10">
+        <v>235.08</v>
+      </c>
+      <c r="E10">
+        <v>337.25</v>
+      </c>
+      <c r="F10">
+        <v>383.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>285.12</v>
+      </c>
+      <c r="B11">
+        <v>249.72</v>
+      </c>
+      <c r="C11">
+        <v>255.27</v>
+      </c>
+      <c r="D11">
+        <v>234.62</v>
+      </c>
+      <c r="E11">
+        <v>336.3</v>
+      </c>
+      <c r="F11">
+        <v>348.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>284.88</v>
+      </c>
+      <c r="B12">
+        <v>268.86</v>
+      </c>
+      <c r="C12">
+        <v>261.77999999999997</v>
+      </c>
+      <c r="D12">
+        <v>235.03</v>
+      </c>
+      <c r="E12">
+        <v>335.45</v>
+      </c>
+      <c r="F12">
+        <v>340.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>282.69</v>
+      </c>
+      <c r="B13">
+        <v>269.86</v>
+      </c>
+      <c r="C13">
+        <v>264.76</v>
+      </c>
+      <c r="D13">
+        <v>235.14</v>
+      </c>
+      <c r="E13">
+        <v>336.71</v>
+      </c>
+      <c r="F13">
+        <v>332.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>284.19</v>
+      </c>
+      <c r="B14">
+        <v>270.64</v>
+      </c>
+      <c r="C14">
+        <v>270.43</v>
+      </c>
+      <c r="D14">
+        <v>226.8</v>
+      </c>
+      <c r="E14">
+        <v>335.91</v>
+      </c>
+      <c r="F14">
+        <v>324.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>283.93</v>
+      </c>
+      <c r="B15">
+        <v>270.19</v>
+      </c>
+      <c r="C15">
+        <v>265.52</v>
+      </c>
+      <c r="D15">
+        <v>232.3</v>
+      </c>
+      <c r="E15">
+        <v>335.67</v>
+      </c>
+      <c r="F15">
+        <v>311.54000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>282.87</v>
+      </c>
+      <c r="B16">
+        <v>269.83999999999997</v>
+      </c>
+      <c r="C16">
+        <v>250.25</v>
+      </c>
+      <c r="D16">
+        <v>233.55</v>
+      </c>
+      <c r="E16">
+        <v>335.08</v>
+      </c>
+      <c r="F16">
+        <v>314.77999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>281.13</v>
+      </c>
+      <c r="B17">
+        <v>268.56</v>
+      </c>
+      <c r="C17">
+        <v>249.93</v>
+      </c>
+      <c r="D17">
+        <v>233.23</v>
+      </c>
+      <c r="E17">
+        <v>334.84</v>
+      </c>
+      <c r="F17">
+        <v>302.16000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>281.39</v>
+      </c>
+      <c r="B18">
+        <v>264.06</v>
+      </c>
+      <c r="C18">
+        <v>247.88</v>
+      </c>
+      <c r="D18">
+        <v>231.96</v>
+      </c>
+      <c r="E18">
+        <v>333.99</v>
+      </c>
+      <c r="F18">
+        <v>287.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>281.11</v>
+      </c>
+      <c r="B19">
+        <v>265.25</v>
+      </c>
+      <c r="C19">
+        <v>247.87</v>
+      </c>
+      <c r="D19">
+        <v>231.66</v>
+      </c>
+      <c r="E19">
+        <v>334.01</v>
+      </c>
+      <c r="F19">
+        <v>288.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>279.77999999999997</v>
+      </c>
+      <c r="B20">
+        <v>265.51</v>
+      </c>
+      <c r="C20">
+        <v>247.01</v>
+      </c>
+      <c r="D20">
+        <v>231.57</v>
+      </c>
+      <c r="E20">
+        <v>333.17</v>
+      </c>
+      <c r="F20">
+        <v>291.83999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>279.52</v>
+      </c>
+      <c r="B21">
+        <v>264.89</v>
+      </c>
+      <c r="C21">
+        <v>246.54</v>
+      </c>
+      <c r="D21">
+        <v>230.25</v>
+      </c>
+      <c r="E21">
+        <v>332.97</v>
+      </c>
+      <c r="F21">
+        <v>289.14999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>280.02</v>
+      </c>
+      <c r="B22">
+        <v>258.37</v>
+      </c>
+      <c r="C22">
+        <v>244.82</v>
+      </c>
+      <c r="D22">
+        <v>230.09</v>
+      </c>
+      <c r="E22">
+        <v>332.21</v>
+      </c>
+      <c r="F22">
+        <v>280.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>277.83</v>
+      </c>
+      <c r="B23">
+        <v>254.05</v>
+      </c>
+      <c r="C23">
+        <v>245.34</v>
+      </c>
+      <c r="D23">
+        <v>231.05</v>
+      </c>
+      <c r="E23">
+        <v>331.63</v>
+      </c>
+      <c r="F23">
+        <v>273.49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>278.58</v>
+      </c>
+      <c r="B24">
+        <v>245.84</v>
+      </c>
+      <c r="C24">
+        <v>244.25</v>
+      </c>
+      <c r="D24">
+        <v>228.29</v>
+      </c>
+      <c r="E24">
+        <v>331.13</v>
+      </c>
+      <c r="F24">
+        <v>276.85000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>277.74</v>
+      </c>
+      <c r="B25">
+        <v>238.52</v>
+      </c>
+      <c r="C25">
+        <v>241.84</v>
+      </c>
+      <c r="D25">
+        <v>229.89</v>
+      </c>
+      <c r="E25">
+        <v>329.17</v>
+      </c>
+      <c r="F25">
+        <v>275.91000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>274.2</v>
+      </c>
+      <c r="B26">
+        <v>215.61</v>
+      </c>
+      <c r="C26">
+        <v>242.36</v>
+      </c>
+      <c r="D26">
+        <v>228.26</v>
+      </c>
+      <c r="E26">
+        <v>327.74</v>
+      </c>
+      <c r="F26">
+        <v>272.04000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>274.24</v>
+      </c>
+      <c r="B27">
+        <v>156.75</v>
+      </c>
+      <c r="C27">
+        <v>241.34</v>
+      </c>
+      <c r="D27">
+        <v>227.44</v>
+      </c>
+      <c r="E27">
+        <v>328.63</v>
+      </c>
+      <c r="F27">
+        <v>272.57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>272.31</v>
+      </c>
+      <c r="B28">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="C28">
+        <v>239.62</v>
+      </c>
+      <c r="D28">
+        <v>227.7</v>
+      </c>
+      <c r="E28">
+        <v>327.35000000000002</v>
+      </c>
+      <c r="F28">
+        <v>275.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>271.51</v>
+      </c>
+      <c r="B29">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="C29">
+        <v>237.95</v>
+      </c>
+      <c r="D29">
+        <v>227.59</v>
+      </c>
+      <c r="E29">
+        <v>324.41000000000003</v>
+      </c>
+      <c r="F29">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>271.08999999999997</v>
+      </c>
+      <c r="B30">
+        <v>133.16</v>
+      </c>
+      <c r="C30">
+        <v>236.67</v>
+      </c>
+      <c r="D30">
+        <v>225.54</v>
+      </c>
+      <c r="E30">
+        <v>324.07</v>
+      </c>
+      <c r="F30">
+        <v>270.22000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>270.05</v>
+      </c>
+      <c r="B31">
+        <v>134.88999999999999</v>
+      </c>
+      <c r="C31">
+        <v>236.53</v>
+      </c>
+      <c r="D31">
+        <v>224.7</v>
+      </c>
+      <c r="E31">
+        <v>323.43</v>
+      </c>
+      <c r="F31">
+        <v>272.02999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>267</v>
+      </c>
+      <c r="B32">
+        <v>133.47999999999999</v>
+      </c>
+      <c r="C32">
+        <v>234.45</v>
+      </c>
+      <c r="D32">
+        <v>218.16</v>
+      </c>
+      <c r="E32">
+        <v>325.56</v>
+      </c>
+      <c r="F32">
+        <v>270.52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>269.27</v>
+      </c>
+      <c r="B33">
+        <v>130.94</v>
+      </c>
+      <c r="C33">
+        <v>232.4</v>
+      </c>
+      <c r="D33">
+        <v>211.51</v>
+      </c>
+      <c r="E33">
+        <v>320.55</v>
+      </c>
+      <c r="F33">
+        <v>273.55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>265.92</v>
+      </c>
+      <c r="B34">
+        <v>127.71</v>
+      </c>
+      <c r="C34">
+        <v>233.99</v>
+      </c>
+      <c r="D34">
+        <v>210.92</v>
+      </c>
+      <c r="E34">
+        <v>321.42</v>
+      </c>
+      <c r="F34">
+        <v>269.98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>265.81</v>
+      </c>
+      <c r="B35">
+        <v>128.47</v>
+      </c>
+      <c r="C35">
+        <v>231.73</v>
+      </c>
+      <c r="D35">
+        <v>209.22</v>
+      </c>
+      <c r="E35">
+        <v>318.74</v>
+      </c>
+      <c r="F35">
+        <v>269.52999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>262.58999999999997</v>
+      </c>
+      <c r="B36">
+        <v>127.9</v>
+      </c>
+      <c r="C36">
+        <v>232.99</v>
+      </c>
+      <c r="D36">
+        <v>204.31</v>
+      </c>
+      <c r="E36">
+        <v>314.12</v>
+      </c>
+      <c r="F36">
+        <v>266.58999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>262.52999999999997</v>
+      </c>
+      <c r="B37">
+        <v>129.18</v>
+      </c>
+      <c r="C37">
+        <v>229.41</v>
+      </c>
+      <c r="D37">
+        <v>207.25</v>
+      </c>
+      <c r="E37">
+        <v>314.77</v>
+      </c>
+      <c r="F37">
+        <v>271.57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>261.42</v>
+      </c>
+      <c r="B38">
+        <v>127.71</v>
+      </c>
+      <c r="C38">
+        <v>224.33</v>
+      </c>
+      <c r="D38">
+        <v>205.76</v>
+      </c>
+      <c r="E38">
+        <v>314.83</v>
+      </c>
+      <c r="F38">
+        <v>270.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>259.73</v>
+      </c>
+      <c r="B39">
+        <v>122.3</v>
+      </c>
+      <c r="C39">
+        <v>219.64</v>
+      </c>
+      <c r="D39">
+        <v>203.57</v>
+      </c>
+      <c r="E39">
+        <v>312.29000000000002</v>
+      </c>
+      <c r="F39">
+        <v>269.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>258.33999999999997</v>
+      </c>
+      <c r="B40">
+        <v>133.29</v>
+      </c>
+      <c r="C40">
+        <v>209.13</v>
+      </c>
+      <c r="D40">
+        <v>203.54</v>
+      </c>
+      <c r="E40">
+        <v>312.31</v>
+      </c>
+      <c r="F40">
+        <v>264.94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>254.32</v>
+      </c>
+      <c r="B41">
+        <v>137.33000000000001</v>
+      </c>
+      <c r="C41">
+        <v>202.18</v>
+      </c>
+      <c r="D41">
+        <v>199.34</v>
+      </c>
+      <c r="E41">
+        <v>307.79000000000002</v>
+      </c>
+      <c r="F41">
+        <v>256.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>255.1</v>
+      </c>
+      <c r="B42">
+        <v>204.61</v>
+      </c>
+      <c r="C42">
+        <v>204.3</v>
+      </c>
+      <c r="D42">
+        <v>191.71</v>
+      </c>
+      <c r="E42">
+        <v>307.33</v>
+      </c>
+      <c r="F42">
+        <v>258.47000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>251.82</v>
+      </c>
+      <c r="B43">
+        <v>221.75</v>
+      </c>
+      <c r="C43">
+        <v>208.49</v>
+      </c>
+      <c r="D43">
+        <v>189.45</v>
+      </c>
+      <c r="E43">
+        <v>303.04000000000002</v>
+      </c>
+      <c r="F43">
+        <v>259.08999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>250.45</v>
+      </c>
+      <c r="B44">
+        <v>221.96</v>
+      </c>
+      <c r="C44">
+        <v>212.74</v>
+      </c>
+      <c r="D44">
+        <v>192.64</v>
+      </c>
+      <c r="E44">
+        <v>300.18</v>
+      </c>
+      <c r="F44">
+        <v>263.72000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>248.58</v>
+      </c>
+      <c r="B45">
+        <v>227.35</v>
+      </c>
+      <c r="C45">
+        <v>208.86</v>
+      </c>
+      <c r="D45">
+        <v>189.98</v>
+      </c>
+      <c r="E45">
+        <v>301.47000000000003</v>
+      </c>
+      <c r="F45">
+        <v>263.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>246.58</v>
+      </c>
+      <c r="B46">
+        <v>222.31</v>
+      </c>
+      <c r="C46">
+        <v>208.63</v>
+      </c>
+      <c r="D46">
+        <v>183.69</v>
+      </c>
+      <c r="E46">
+        <v>296.97000000000003</v>
+      </c>
+      <c r="F46">
+        <v>265.02999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>242.26</v>
+      </c>
+      <c r="B47">
+        <v>224.4</v>
+      </c>
+      <c r="C47">
+        <v>194.99</v>
+      </c>
+      <c r="D47">
+        <v>181.34</v>
+      </c>
+      <c r="E47">
+        <v>291.70999999999998</v>
+      </c>
+      <c r="F47">
+        <v>264.95999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>241.17</v>
+      </c>
+      <c r="B48">
+        <v>218.99</v>
+      </c>
+      <c r="C48">
+        <v>207.08</v>
+      </c>
+      <c r="D48">
+        <v>184.32</v>
+      </c>
+      <c r="E48">
+        <v>292.43</v>
+      </c>
+      <c r="F48">
+        <v>267.45999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>238.83</v>
+      </c>
+      <c r="B49">
+        <v>223.31</v>
+      </c>
+      <c r="C49">
+        <v>213.19</v>
+      </c>
+      <c r="D49">
+        <v>180.39</v>
+      </c>
+      <c r="E49">
+        <v>285.67</v>
+      </c>
+      <c r="F49">
+        <v>260.85000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>238.46</v>
+      </c>
+      <c r="B50">
+        <v>223.27</v>
+      </c>
+      <c r="C50">
+        <v>209.36</v>
+      </c>
+      <c r="D50">
+        <v>173.37</v>
+      </c>
+      <c r="E50">
+        <v>282.85000000000002</v>
+      </c>
+      <c r="F50">
+        <v>263.88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>231.96</v>
+      </c>
+      <c r="B51">
+        <v>220.14</v>
+      </c>
+      <c r="C51">
+        <v>207.92</v>
+      </c>
+      <c r="D51">
+        <v>175.41</v>
+      </c>
+      <c r="E51">
+        <v>280.77999999999997</v>
+      </c>
+      <c r="F51">
+        <v>262.27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>231.16</v>
+      </c>
+      <c r="B52">
+        <v>219.7</v>
+      </c>
+      <c r="C52">
+        <v>207.14</v>
+      </c>
+      <c r="D52">
+        <v>178.1</v>
+      </c>
+      <c r="E52">
+        <v>274.18</v>
+      </c>
+      <c r="F52">
+        <v>257.97000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>229.33</v>
+      </c>
+      <c r="B53">
+        <v>218.71</v>
+      </c>
+      <c r="C53">
+        <v>202.43</v>
+      </c>
+      <c r="D53">
+        <v>169.45</v>
+      </c>
+      <c r="E53">
+        <v>270.54000000000002</v>
+      </c>
+      <c r="F53">
+        <v>259.07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>227.2</v>
+      </c>
+      <c r="B54">
+        <v>212.54</v>
+      </c>
+      <c r="C54">
+        <v>200.65</v>
+      </c>
+      <c r="D54">
+        <v>166.82</v>
+      </c>
+      <c r="E54">
+        <v>272.01</v>
+      </c>
+      <c r="F54">
+        <v>258.55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>224.65</v>
+      </c>
+      <c r="B55">
+        <v>210.71</v>
+      </c>
+      <c r="C55">
+        <v>199.32</v>
+      </c>
+      <c r="D55">
+        <v>163.63</v>
+      </c>
+      <c r="E55">
+        <v>274.58999999999997</v>
+      </c>
+      <c r="F55">
+        <v>259.87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>225.14</v>
+      </c>
+      <c r="B56">
+        <v>202.19</v>
+      </c>
+      <c r="C56">
+        <v>196.08</v>
+      </c>
+      <c r="D56">
+        <v>163.56</v>
+      </c>
+      <c r="E56">
+        <v>276.18</v>
+      </c>
+      <c r="F56">
+        <v>260.86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>224.16</v>
+      </c>
+      <c r="B57">
+        <v>191.28</v>
+      </c>
+      <c r="C57">
+        <v>197.54</v>
+      </c>
+      <c r="D57">
+        <v>152.83000000000001</v>
+      </c>
+      <c r="E57">
+        <v>277.54000000000002</v>
+      </c>
+      <c r="F57">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>222.39</v>
+      </c>
+      <c r="B58">
+        <v>167.63</v>
+      </c>
+      <c r="C58">
+        <v>197.45</v>
+      </c>
+      <c r="D58">
+        <v>155.26</v>
+      </c>
+      <c r="E58">
+        <v>275.24</v>
+      </c>
+      <c r="F58">
+        <v>258.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>223.85</v>
+      </c>
+      <c r="B59">
+        <v>158.93</v>
+      </c>
+      <c r="C59">
+        <v>193.7</v>
+      </c>
+      <c r="D59">
+        <v>156.97999999999999</v>
+      </c>
+      <c r="E59">
+        <v>274.13</v>
+      </c>
+      <c r="F59">
+        <v>264.64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>225.9</v>
+      </c>
+      <c r="B60">
+        <v>159.77000000000001</v>
+      </c>
+      <c r="C60">
+        <v>190.9</v>
+      </c>
+      <c r="D60">
+        <v>156.03</v>
+      </c>
+      <c r="E60">
+        <v>274.27999999999997</v>
+      </c>
+      <c r="F60">
+        <v>259.35000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>221.24</v>
+      </c>
+      <c r="B61">
+        <v>164.7</v>
+      </c>
+      <c r="C61">
+        <v>191.91</v>
+      </c>
+      <c r="D61">
+        <v>152.35</v>
+      </c>
+      <c r="E61">
+        <v>268.8</v>
+      </c>
+      <c r="F61">
+        <v>261.33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>220.94</v>
+      </c>
+      <c r="B62">
+        <v>164.08</v>
+      </c>
+      <c r="C62">
+        <v>192.21</v>
+      </c>
+      <c r="D62">
+        <v>157.33000000000001</v>
+      </c>
+      <c r="E62">
+        <v>266.98</v>
+      </c>
+      <c r="F62">
+        <v>257.98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>225.46</v>
+      </c>
+      <c r="B63">
+        <v>158.13999999999999</v>
+      </c>
+      <c r="C63">
+        <v>193.57</v>
+      </c>
+      <c r="D63">
+        <v>148.07</v>
+      </c>
+      <c r="E63">
+        <v>261.89999999999998</v>
+      </c>
+      <c r="F63">
+        <v>256.94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>227.11</v>
+      </c>
+      <c r="B64">
+        <v>144.13</v>
+      </c>
+      <c r="C64">
+        <v>192.81</v>
+      </c>
+      <c r="D64">
+        <v>154.94</v>
+      </c>
+      <c r="E64">
+        <v>262.18</v>
+      </c>
+      <c r="F64">
+        <v>263.61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>226.03</v>
+      </c>
+      <c r="B65">
+        <v>140.83000000000001</v>
+      </c>
+      <c r="C65">
+        <v>188.26</v>
+      </c>
+      <c r="D65">
+        <v>153.07</v>
+      </c>
+      <c r="E65">
+        <v>259.23</v>
+      </c>
+      <c r="F65">
+        <v>258.36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>223.09</v>
+      </c>
+      <c r="B66">
+        <v>174.61</v>
+      </c>
+      <c r="C66">
+        <v>195.46</v>
+      </c>
+      <c r="D66">
+        <v>156.63</v>
+      </c>
+      <c r="E66">
+        <v>259.36</v>
+      </c>
+      <c r="F66">
+        <v>260.13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>218.46</v>
+      </c>
+      <c r="B67">
+        <v>160.01</v>
+      </c>
+      <c r="C67">
+        <v>190.68</v>
+      </c>
+      <c r="D67">
+        <v>151.88</v>
+      </c>
+      <c r="E67">
+        <v>230.94</v>
+      </c>
+      <c r="F67">
+        <v>254.53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>216.75</v>
+      </c>
+      <c r="B68">
+        <v>154.69</v>
+      </c>
+      <c r="C68">
+        <v>191.39</v>
+      </c>
+      <c r="D68">
+        <v>154.87</v>
+      </c>
+      <c r="F68">
+        <v>253.92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>216.85</v>
+      </c>
+      <c r="B69">
+        <v>164.31</v>
+      </c>
+      <c r="C69">
+        <v>191.36</v>
+      </c>
+      <c r="D69">
+        <v>155.66</v>
+      </c>
+      <c r="F69">
+        <v>265.92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>218.12</v>
+      </c>
+      <c r="B70">
+        <v>163.33000000000001</v>
+      </c>
+      <c r="C70">
+        <v>188.45</v>
+      </c>
+      <c r="D70">
+        <v>151.35</v>
+      </c>
+      <c r="F70">
+        <v>256.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>217.89</v>
+      </c>
+      <c r="B71">
+        <v>180.52</v>
+      </c>
+      <c r="C71">
+        <v>191.7</v>
+      </c>
+      <c r="D71">
+        <v>155.31</v>
+      </c>
+      <c r="F71">
+        <v>261.48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>213.72</v>
+      </c>
+      <c r="B72">
+        <v>176.72</v>
+      </c>
+      <c r="C72">
+        <v>186.97</v>
+      </c>
+      <c r="D72">
+        <v>144.93</v>
+      </c>
+      <c r="F72">
+        <v>261.24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>214.95</v>
+      </c>
+      <c r="B73">
+        <v>175.64</v>
+      </c>
+      <c r="C73">
+        <v>193.25</v>
+      </c>
+      <c r="D73">
+        <v>150.16</v>
+      </c>
+      <c r="F73">
+        <v>258.18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>214.87</v>
+      </c>
+      <c r="B74">
+        <v>171.47</v>
+      </c>
+      <c r="C74">
+        <v>185.64</v>
+      </c>
+      <c r="D74">
+        <v>153.53</v>
+      </c>
+      <c r="F74">
+        <v>263.89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>212.52</v>
+      </c>
+      <c r="B75">
+        <v>166.85</v>
+      </c>
+      <c r="C75">
+        <v>189.07</v>
+      </c>
+      <c r="D75">
+        <v>153.4</v>
+      </c>
+      <c r="F75">
+        <v>251.81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>213.84</v>
+      </c>
+      <c r="B76">
+        <v>168.68</v>
+      </c>
+      <c r="C76">
+        <v>187.6</v>
+      </c>
+      <c r="D76">
+        <v>151.05000000000001</v>
+      </c>
+      <c r="F76">
+        <v>243.45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>214.08</v>
+      </c>
+      <c r="B77">
+        <v>173.92</v>
+      </c>
+      <c r="C77">
+        <v>185.24</v>
+      </c>
+      <c r="D77">
+        <v>153.22</v>
+      </c>
+      <c r="F77">
+        <v>250.78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>214.13</v>
+      </c>
+      <c r="B78">
+        <v>178.67</v>
+      </c>
+      <c r="C78">
+        <v>197.78</v>
+      </c>
+      <c r="D78">
+        <v>154.47</v>
+      </c>
+      <c r="F78">
+        <v>63.53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>211.56</v>
+      </c>
+      <c r="B79">
+        <v>171.98</v>
+      </c>
+      <c r="C79">
+        <v>185.45</v>
+      </c>
+      <c r="D79">
+        <v>152.16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>213.39</v>
+      </c>
+      <c r="B80">
+        <v>174.28</v>
+      </c>
+      <c r="C80">
+        <v>185.82</v>
+      </c>
+      <c r="D80">
+        <v>154.01</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>211.37</v>
+      </c>
+      <c r="B81">
+        <v>174.18</v>
+      </c>
+      <c r="C81">
+        <v>196.17</v>
+      </c>
+      <c r="D81">
+        <v>152.55000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>211.82</v>
+      </c>
+      <c r="B82">
+        <v>171.96</v>
+      </c>
+      <c r="C82">
+        <v>187.43</v>
+      </c>
+      <c r="D82">
+        <v>148.08000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>211.86</v>
+      </c>
+      <c r="B83">
+        <v>163.34</v>
+      </c>
+      <c r="C83">
+        <v>187.11</v>
+      </c>
+      <c r="D83">
+        <v>154.31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>212.93</v>
+      </c>
+      <c r="B84">
+        <v>165.27</v>
+      </c>
+      <c r="C84">
+        <v>194.29</v>
+      </c>
+      <c r="D84">
+        <v>156.35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>216.85</v>
+      </c>
+      <c r="B85">
+        <v>176.82</v>
+      </c>
+      <c r="C85">
+        <v>191.05</v>
+      </c>
+      <c r="D85">
+        <v>147.01</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>214.45</v>
+      </c>
+      <c r="B86">
+        <v>179.14</v>
+      </c>
+      <c r="C86">
+        <v>185.12</v>
+      </c>
+      <c r="D86">
+        <v>146.62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>215.98</v>
+      </c>
+      <c r="B87">
+        <v>189.73</v>
+      </c>
+      <c r="C87">
+        <v>189.43</v>
+      </c>
+      <c r="D87">
+        <v>154.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>219.15</v>
+      </c>
+      <c r="B88">
+        <v>186.88</v>
+      </c>
+      <c r="C88">
+        <v>194.16</v>
+      </c>
+      <c r="D88">
+        <v>154.83000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>224.24</v>
+      </c>
+      <c r="B89">
+        <v>187.77</v>
+      </c>
+      <c r="C89">
+        <v>193.07</v>
+      </c>
+      <c r="D89">
+        <v>149.81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>227.46</v>
+      </c>
+      <c r="B90">
+        <v>184.3</v>
+      </c>
+      <c r="C90">
+        <v>186.03</v>
+      </c>
+      <c r="D90">
+        <v>149.99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>227.87</v>
+      </c>
+      <c r="B91">
+        <v>180.73</v>
+      </c>
+      <c r="C91">
+        <v>185.63</v>
+      </c>
+      <c r="D91">
+        <v>153.61000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>227.35</v>
+      </c>
+      <c r="B92">
+        <v>182.82</v>
+      </c>
+      <c r="C92">
+        <v>184.79</v>
+      </c>
+      <c r="D92">
+        <v>158.18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>227.99</v>
+      </c>
+      <c r="B93">
+        <v>181.34</v>
+      </c>
+      <c r="C93">
+        <v>187.11</v>
+      </c>
+      <c r="D93">
+        <v>155.72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>226.48</v>
+      </c>
+      <c r="B94">
+        <v>179.76</v>
+      </c>
+      <c r="C94">
+        <v>185.16</v>
+      </c>
+      <c r="D94">
+        <v>147.52000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>223.91</v>
+      </c>
+      <c r="B95">
+        <v>177.99</v>
+      </c>
+      <c r="C95">
+        <v>187.1</v>
+      </c>
+      <c r="D95">
+        <v>153.61000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>224.34</v>
+      </c>
+      <c r="B96">
+        <v>183.16</v>
+      </c>
+      <c r="C96">
+        <v>195.16</v>
+      </c>
+      <c r="D96">
+        <v>149.91999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>222.65</v>
+      </c>
+      <c r="B97">
+        <v>182.49</v>
+      </c>
+      <c r="C97">
+        <v>196.57</v>
+      </c>
+      <c r="D97">
+        <v>155.85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>225.31</v>
+      </c>
+      <c r="B98">
+        <v>179.99</v>
+      </c>
+      <c r="C98">
+        <v>193.92</v>
+      </c>
+      <c r="D98">
+        <v>150.16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>221.95</v>
+      </c>
+      <c r="B99">
+        <v>179.84</v>
+      </c>
+      <c r="C99">
+        <v>192.09</v>
+      </c>
+      <c r="D99">
+        <v>151.85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>223.24</v>
+      </c>
+      <c r="B100">
+        <v>176.63</v>
+      </c>
+      <c r="C100">
+        <v>189.73</v>
+      </c>
+      <c r="D100">
+        <v>144.84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>226.48</v>
+      </c>
+      <c r="B101">
+        <v>175.82</v>
+      </c>
+      <c r="C101">
+        <v>183.66</v>
+      </c>
+      <c r="D101">
+        <v>148.03</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>227.2</v>
+      </c>
+      <c r="B102">
+        <v>177.76</v>
+      </c>
+      <c r="C102">
+        <v>190.67</v>
+      </c>
+      <c r="D102">
+        <v>147.03</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>225.76</v>
+      </c>
+      <c r="B103">
+        <v>179.01</v>
+      </c>
+      <c r="C103">
+        <v>194.59</v>
+      </c>
+      <c r="D103">
+        <v>145.71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>224.5</v>
+      </c>
+      <c r="B104">
+        <v>178.3</v>
+      </c>
+      <c r="C104">
+        <v>194.66</v>
+      </c>
+      <c r="D104">
+        <v>144.88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>227.61</v>
+      </c>
+      <c r="B105">
+        <v>172.26</v>
+      </c>
+      <c r="C105">
+        <v>194.73</v>
+      </c>
+      <c r="D105">
+        <v>144.22999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>226.74</v>
+      </c>
+      <c r="B106">
+        <v>172.01</v>
+      </c>
+      <c r="C106">
+        <v>196.68</v>
+      </c>
+      <c r="D106">
+        <v>145.41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>226.24</v>
+      </c>
+      <c r="B107">
+        <v>176.43</v>
+      </c>
+      <c r="C107">
+        <v>194.83</v>
+      </c>
+      <c r="D107">
+        <v>147.66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>224.94</v>
+      </c>
+      <c r="B108">
+        <v>174.68</v>
+      </c>
+      <c r="C108">
+        <v>191.32</v>
+      </c>
+      <c r="D108">
+        <v>147.21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>225.41</v>
+      </c>
+      <c r="B109">
+        <v>173.25</v>
+      </c>
+      <c r="C109">
+        <v>186.29</v>
+      </c>
+      <c r="D109">
+        <v>148.38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>225.48</v>
+      </c>
+      <c r="B110">
+        <v>165.44</v>
+      </c>
+      <c r="C110">
+        <v>181.03</v>
+      </c>
+      <c r="D110">
+        <v>151.77000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>223.24</v>
+      </c>
+      <c r="B111">
+        <v>166.89</v>
+      </c>
+      <c r="C111">
+        <v>178.86</v>
+      </c>
+      <c r="D111">
+        <v>148.30000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>223.97</v>
+      </c>
+      <c r="B112">
+        <v>174.41</v>
+      </c>
+      <c r="C112">
+        <v>178.84</v>
+      </c>
+      <c r="D112">
+        <v>150.29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>224.63</v>
+      </c>
+      <c r="B113">
+        <v>175.17</v>
+      </c>
+      <c r="C113">
+        <v>179.58</v>
+      </c>
+      <c r="D113">
+        <v>148.84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>225.81</v>
+      </c>
+      <c r="B114">
+        <v>170.21</v>
+      </c>
+      <c r="C114">
+        <v>180.66</v>
+      </c>
+      <c r="D114">
+        <v>147.51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>223.24</v>
+      </c>
+      <c r="B115">
+        <v>165.42</v>
+      </c>
+      <c r="C115">
+        <v>170.71</v>
+      </c>
+      <c r="D115">
+        <v>149.27000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>226.42</v>
+      </c>
+      <c r="B116">
+        <v>164.11</v>
+      </c>
+      <c r="C116">
+        <v>170.54</v>
+      </c>
+      <c r="D116">
+        <v>148.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>227.16</v>
+      </c>
+      <c r="B117">
+        <v>167.13</v>
+      </c>
+      <c r="C117">
+        <v>175.24</v>
+      </c>
+      <c r="D117">
+        <v>152.81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>229.05</v>
+      </c>
+      <c r="B118">
+        <v>169.48</v>
+      </c>
+      <c r="C118">
+        <v>175.77</v>
+      </c>
+      <c r="D118">
+        <v>146.65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>229.74</v>
+      </c>
+      <c r="B119">
+        <v>173.87</v>
+      </c>
+      <c r="C119">
+        <v>174.62</v>
+      </c>
+      <c r="D119">
+        <v>154.46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>229.44</v>
+      </c>
+      <c r="B120">
+        <v>164.64</v>
+      </c>
+      <c r="C120">
+        <v>174.56</v>
+      </c>
+      <c r="D120">
+        <v>148.21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>229.99</v>
+      </c>
+      <c r="B121">
+        <v>164.38</v>
+      </c>
+      <c r="C121">
+        <v>186.67</v>
+      </c>
+      <c r="D121">
+        <v>146.86000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>229.16</v>
+      </c>
+      <c r="B122">
+        <v>166.87</v>
+      </c>
+      <c r="C122">
+        <v>185.87</v>
+      </c>
+      <c r="D122">
+        <v>148.79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>229.94</v>
+      </c>
+      <c r="B123">
+        <v>165.7</v>
+      </c>
+      <c r="C123">
+        <v>172.54</v>
+      </c>
+      <c r="D123">
+        <v>101.33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>231.09</v>
+      </c>
+      <c r="B124">
+        <v>165.23</v>
+      </c>
+      <c r="C124">
+        <v>181.53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>233.55</v>
+      </c>
+      <c r="B125">
+        <v>164.23</v>
+      </c>
+      <c r="C125">
+        <v>190.26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>235.27</v>
+      </c>
+      <c r="B126">
+        <v>162.01</v>
+      </c>
+      <c r="C126">
+        <v>184.71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>232.92</v>
+      </c>
+      <c r="B127">
+        <v>167.81</v>
+      </c>
+      <c r="C127">
+        <v>183.56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>232.57</v>
+      </c>
+      <c r="B128">
+        <v>176.55</v>
+      </c>
+      <c r="C128">
+        <v>192.01</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>230.7</v>
+      </c>
+      <c r="B129">
+        <v>168.59</v>
+      </c>
+      <c r="C129">
+        <v>191.81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>232.03</v>
+      </c>
+      <c r="B130">
+        <v>182.57</v>
+      </c>
+      <c r="C130">
+        <v>187.26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>233.09</v>
+      </c>
+      <c r="B131">
+        <v>195.36</v>
+      </c>
+      <c r="C131">
+        <v>187.65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>231.88</v>
+      </c>
+      <c r="B132">
+        <v>207.26</v>
+      </c>
+      <c r="C132">
+        <v>190.46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>232.96</v>
+      </c>
+      <c r="B133">
+        <v>202.16</v>
+      </c>
+      <c r="C133">
+        <v>196.02</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>232.13</v>
+      </c>
+      <c r="B134">
+        <v>196.84</v>
+      </c>
+      <c r="C134">
+        <v>194.94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>231.84</v>
+      </c>
+      <c r="B135">
+        <v>209.17</v>
+      </c>
+      <c r="C135">
+        <v>185.06</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>146.58000000000001</v>
+      </c>
+      <c r="B136">
+        <v>201.25</v>
+      </c>
+      <c r="C136">
+        <v>193.52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>194.43</v>
+      </c>
+      <c r="C137">
+        <v>192.36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>200.39</v>
+      </c>
+      <c r="C138">
+        <v>190.31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>194.91</v>
+      </c>
+      <c r="C139">
+        <v>186.65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>199.06</v>
+      </c>
+      <c r="C140">
+        <v>186.12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>203.47</v>
+      </c>
+      <c r="C141">
+        <v>189.49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>202.83</v>
+      </c>
+      <c r="C142">
+        <v>186.39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>199.02</v>
+      </c>
+      <c r="C143">
+        <v>186.21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>191.25</v>
+      </c>
+      <c r="C144">
+        <v>188.59</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>190.02</v>
+      </c>
+      <c r="C145">
+        <v>186.55</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>189.83</v>
+      </c>
+      <c r="C146">
+        <v>189.52</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>189.95</v>
+      </c>
+      <c r="C147">
+        <v>188.88</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>184.91</v>
+      </c>
+      <c r="C148">
+        <v>185.48</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>182.72</v>
+      </c>
+      <c r="C149">
+        <v>184.48</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>182.47</v>
+      </c>
+      <c r="C150">
+        <v>184.22</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>179.73</v>
+      </c>
+      <c r="C151">
+        <v>189.04</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>183.8</v>
+      </c>
+      <c r="C152">
+        <v>186.32</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>185.16</v>
+      </c>
+      <c r="C153">
+        <v>179.54</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>181.52</v>
+      </c>
+      <c r="C154">
+        <v>180.66</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>179.58</v>
+      </c>
+      <c r="C155">
+        <v>188.34</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>182.75</v>
+      </c>
+      <c r="C156">
+        <v>178.93</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>177.72</v>
+      </c>
+      <c r="C157">
+        <v>184.55</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>180.43</v>
+      </c>
+      <c r="C158">
+        <v>182.43</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>189.07</v>
+      </c>
+      <c r="C159">
+        <v>182.21</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>172.35</v>
+      </c>
+      <c r="C160">
+        <v>177.83</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>182.3</v>
+      </c>
+      <c r="C161">
+        <v>182.76</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>176.5</v>
+      </c>
+      <c r="C162">
+        <v>177.89</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>178.26</v>
+      </c>
+      <c r="C163">
+        <v>179.78</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>179.84</v>
+      </c>
+      <c r="C164">
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>190.12</v>
+      </c>
+      <c r="C165">
+        <v>185.41</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>191.48</v>
+      </c>
+      <c r="C166">
+        <v>187.37</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>200.94</v>
+      </c>
+      <c r="C167">
+        <v>179.82</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>203.95</v>
+      </c>
+      <c r="C168">
+        <v>179.45</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>209.23</v>
+      </c>
+      <c r="C169">
+        <v>188.32</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>208.21</v>
+      </c>
+      <c r="C170">
+        <v>178.41</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>208.56</v>
+      </c>
+      <c r="C171">
+        <v>188.12</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>212.07</v>
+      </c>
+      <c r="C172">
+        <v>179.28</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>206.6</v>
+      </c>
+      <c r="C173">
+        <v>181.1</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>207.97</v>
+      </c>
+      <c r="C174">
+        <v>182.48</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>205.78</v>
+      </c>
+      <c r="C175">
+        <v>183.46</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>207.16</v>
+      </c>
+      <c r="C176">
+        <v>179.76</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>203.98</v>
+      </c>
+      <c r="C177">
+        <v>188.85</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>199.42</v>
+      </c>
+      <c r="C178">
+        <v>259.76</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>201.84</v>
+      </c>
+      <c r="C179">
+        <v>260.20999999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>196.16</v>
+      </c>
+      <c r="C180">
+        <v>260.91000000000003</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>195.62</v>
+      </c>
+      <c r="C181">
+        <v>256.70999999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>204.16</v>
+      </c>
+      <c r="C182">
+        <v>257.14999999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>184.4</v>
+      </c>
+      <c r="C183">
+        <v>254.28</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>178.12</v>
+      </c>
+      <c r="C184">
+        <v>245.55</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>187.43</v>
+      </c>
+      <c r="C185">
+        <v>244.42</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>178.64</v>
+      </c>
+      <c r="C186">
+        <v>242.15</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>169.73</v>
+      </c>
+      <c r="C187">
+        <v>238.68</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>153.84</v>
+      </c>
+      <c r="C188">
+        <v>235.4</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>158.22999999999999</v>
+      </c>
+      <c r="C189">
+        <v>229.83</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>154.31</v>
+      </c>
+      <c r="C190">
+        <v>230.96</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>165.22</v>
+      </c>
+      <c r="C191">
+        <v>222.3</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>163.38999999999999</v>
+      </c>
+      <c r="C192">
+        <v>223.03</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>176.71</v>
+      </c>
+      <c r="C193">
+        <v>217.89</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>183.88</v>
+      </c>
+      <c r="C194">
+        <v>212.51</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>184.66</v>
+      </c>
+      <c r="C195">
+        <v>215.97</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>180.45</v>
+      </c>
+      <c r="C196">
+        <v>208.38</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>177.26</v>
+      </c>
+      <c r="C197">
+        <v>203.26</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>173.33</v>
+      </c>
+      <c r="C198">
+        <v>202.55</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>197.08</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>190.39</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>204.86</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>203.93</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>192.48</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>202.49</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>197.06</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>197.23</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>198.92</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>195.58</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>199.14</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>198.56</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>197.02</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>197.51</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>191.48</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>194.56</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>164.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>